--- a/data_xls.xlsx
+++ b/data_xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trici\Documents\GitHub\comics-woz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96999E7-6166-4758-B6A3-27EE4C44E0F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC6705-EB2D-4099-81A3-4DD84EC5AC5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E94E8B-D784-4161-9E5D-7DBADBB2CFCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11E94E8B-D784-4161-9E5D-7DBADBB2CFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="568">
   <si>
     <t>_id</t>
   </si>
@@ -3560,6 +3560,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9111,7 +9112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE5FE0E-3365-4655-9A2D-741047B6D0B2}">
   <dimension ref="A1:W306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="J76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
@@ -39351,11 +39352,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EF7BC7-61C4-4973-9605-5C677871F4CA}">
-  <dimension ref="A1:O228"/>
+  <dimension ref="A1:R228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N229" sqref="N229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39367,7 +39368,7 @@
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -39410,8 +39411,11 @@
       <c r="N1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>522</v>
       </c>
@@ -39449,7 +39453,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="J2:M2" si="0">COUNTIF(F$2:F$6,$C$2)</f>
+        <f t="shared" ref="L2:M2" si="0">COUNTIF(F$2:F$6,$C$2)</f>
         <v>4</v>
       </c>
       <c r="M2">
@@ -39463,8 +39467,15 @@
       <c r="O2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R2">
+        <f>AVERAGE(P:P)</f>
+        <v>0.68666237666237673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>522</v>
       </c>
@@ -39513,8 +39524,15 @@
         <f>COUNTIF(C2:G6,C4)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>STDEV(P:P)</f>
+        <v>0.12925700946051635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>522</v>
       </c>
@@ -39563,8 +39581,11 @@
         <f>N2/SUM(N2:N3)</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>522</v>
       </c>
@@ -39589,8 +39610,11 @@
       <c r="H5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>522</v>
       </c>
@@ -39615,8 +39639,11 @@
       <c r="H6" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>523</v>
       </c>
@@ -39667,8 +39694,11 @@
       <c r="O7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>523</v>
       </c>
@@ -39711,8 +39741,11 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>523</v>
       </c>
@@ -39761,8 +39794,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>523</v>
       </c>
@@ -39787,8 +39823,11 @@
       <c r="H10" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>523</v>
       </c>
@@ -39813,8 +39852,11 @@
       <c r="H11" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>524</v>
       </c>
@@ -39866,8 +39908,11 @@
       <c r="O12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>524</v>
       </c>
@@ -39916,8 +39961,11 @@
         <f>COUNTIF(C12:G19,C17)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0.68888888888888888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>524</v>
       </c>
@@ -39966,8 +40014,11 @@
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>524</v>
       </c>
@@ -39992,8 +40043,11 @@
       <c r="H15" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>524</v>
       </c>
@@ -40018,8 +40072,11 @@
       <c r="H16" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>524</v>
       </c>
@@ -40044,8 +40101,11 @@
       <c r="H17" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>524</v>
       </c>
@@ -40070,8 +40130,11 @@
       <c r="H18" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>524</v>
       </c>
@@ -40096,8 +40159,11 @@
       <c r="H19" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>525</v>
       </c>
@@ -40149,8 +40215,11 @@
       <c r="O20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>525</v>
       </c>
@@ -40199,8 +40268,11 @@
         <f>COUNTIF(C$20:G$25,$C$23)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>0.54285714285714282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>525</v>
       </c>
@@ -40249,8 +40321,11 @@
         <f>N20/SUM(N20:N21)</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>525</v>
       </c>
@@ -40275,8 +40350,11 @@
       <c r="H23" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>525</v>
       </c>
@@ -40301,8 +40379,11 @@
       <c r="H24" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>525</v>
       </c>
@@ -40327,8 +40408,11 @@
       <c r="H25" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>526</v>
       </c>
@@ -40358,7 +40442,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:N26" si="9">COUNTIF(D$26:D$34,$C$26)</f>
+        <f t="shared" ref="J26:M26" si="9">COUNTIF(D$26:D$34,$C$26)</f>
         <v>4</v>
       </c>
       <c r="K26">
@@ -40380,8 +40464,11 @@
       <c r="O26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>526</v>
       </c>
@@ -40430,8 +40517,11 @@
         <f>COUNTIF(C26:G34,$C$28)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>526</v>
       </c>
@@ -40480,8 +40570,11 @@
         <f>N27/SUM(N26:N27)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>526</v>
       </c>
@@ -40506,8 +40599,11 @@
       <c r="H29" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>526</v>
       </c>
@@ -40532,8 +40628,11 @@
       <c r="H30" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>0.82857142857142863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>526</v>
       </c>
@@ -40558,8 +40657,11 @@
       <c r="H31" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>526</v>
       </c>
@@ -40584,8 +40686,11 @@
       <c r="H32" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>526</v>
       </c>
@@ -40610,8 +40715,11 @@
       <c r="H33" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>526</v>
       </c>
@@ -40636,8 +40744,11 @@
       <c r="H34" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>527</v>
       </c>
@@ -40689,8 +40800,11 @@
       <c r="O35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>527</v>
       </c>
@@ -40739,8 +40853,11 @@
         <f>COUNTIF(C35:G42,C40)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>527</v>
       </c>
@@ -40789,8 +40906,11 @@
         <f t="shared" si="14"/>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>527</v>
       </c>
@@ -40815,8 +40935,11 @@
       <c r="H38" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>527</v>
       </c>
@@ -40842,7 +40965,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>527</v>
       </c>
@@ -40867,8 +40990,9 @@
       <c r="H40" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>527</v>
       </c>
@@ -40894,7 +41018,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>527</v>
       </c>
@@ -40919,8 +41043,9 @@
       <c r="H42" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -40953,7 +41078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>528</v>
       </c>
@@ -40983,7 +41108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>528</v>
       </c>
@@ -41013,7 +41138,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>528</v>
       </c>
@@ -41038,8 +41163,9 @@
       <c r="H46" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>529</v>
       </c>
@@ -41072,7 +41198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>529</v>
       </c>
@@ -41102,7 +41228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>529</v>
       </c>
@@ -41132,7 +41258,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>529</v>
       </c>
@@ -41158,7 +41284,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>529</v>
       </c>
@@ -41183,8 +41309,9 @@
       <c r="H51" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>530</v>
       </c>
@@ -41216,7 +41343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>530</v>
       </c>
@@ -41245,7 +41372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>530</v>
       </c>
@@ -41274,8 +41401,9 @@
         <f>N53/SUM(N52:N53)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>531</v>
       </c>
@@ -41308,7 +41436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>531</v>
       </c>
@@ -41338,7 +41466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>531</v>
       </c>
@@ -41368,7 +41496,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>531</v>
       </c>
@@ -41394,7 +41522,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>531</v>
       </c>
@@ -41420,7 +41548,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>531</v>
       </c>
@@ -41446,7 +41574,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>531</v>
       </c>
@@ -41471,8 +41599,9 @@
       <c r="H61" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>532</v>
       </c>
@@ -41505,7 +41634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>532</v>
       </c>
@@ -41535,7 +41664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>532</v>
       </c>
@@ -41565,7 +41694,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -41591,7 +41720,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>532</v>
       </c>
@@ -41617,7 +41746,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>532</v>
       </c>
@@ -41642,8 +41771,9 @@
       <c r="H67" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -41676,7 +41806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>533</v>
       </c>
@@ -41706,7 +41836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>533</v>
       </c>
@@ -41736,7 +41866,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>533</v>
       </c>
@@ -41762,7 +41892,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>533</v>
       </c>
@@ -41788,7 +41918,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>533</v>
       </c>
@@ -41814,7 +41944,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>533</v>
       </c>
@@ -41839,8 +41969,9 @@
       <c r="H74" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>534</v>
       </c>
@@ -41873,7 +42004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>534</v>
       </c>
@@ -41903,7 +42034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>534</v>
       </c>
@@ -41933,7 +42064,7 @@
         <v>0.68888888888888888</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>534</v>
       </c>
@@ -41959,7 +42090,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>534</v>
       </c>
@@ -41985,7 +42116,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>534</v>
       </c>
@@ -42011,7 +42142,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>534</v>
       </c>
@@ -42037,7 +42168,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>534</v>
       </c>
@@ -42063,7 +42194,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>534</v>
       </c>
@@ -42088,8 +42219,9 @@
       <c r="H83" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>535</v>
       </c>
@@ -42122,7 +42254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>535</v>
       </c>
@@ -42152,7 +42284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>535</v>
       </c>
@@ -42182,7 +42314,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>535</v>
       </c>
@@ -42208,7 +42340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>535</v>
       </c>
@@ -42234,7 +42366,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>535</v>
       </c>
@@ -42259,8 +42391,9 @@
       <c r="H89" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>536</v>
       </c>
@@ -42293,7 +42426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>536</v>
       </c>
@@ -42323,7 +42456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>536</v>
       </c>
@@ -42353,7 +42486,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>536</v>
       </c>
@@ -42379,7 +42512,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>536</v>
       </c>
@@ -42405,7 +42538,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>536</v>
       </c>
@@ -42430,8 +42563,9 @@
       <c r="H95" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>537</v>
       </c>
@@ -42464,7 +42598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>537</v>
       </c>
@@ -42494,7 +42628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>537</v>
       </c>
@@ -42524,7 +42658,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>537</v>
       </c>
@@ -42550,7 +42684,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>537</v>
       </c>
@@ -42575,8 +42709,9 @@
       <c r="H100" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>538</v>
       </c>
@@ -42609,7 +42744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>538</v>
       </c>
@@ -42639,7 +42774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>538</v>
       </c>
@@ -42669,7 +42804,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>538</v>
       </c>
@@ -42695,7 +42830,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>538</v>
       </c>
@@ -42721,7 +42856,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>538</v>
       </c>
@@ -42747,7 +42882,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>538</v>
       </c>
@@ -42772,8 +42907,9 @@
       <c r="H107" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>539</v>
       </c>
@@ -42806,7 +42942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>539</v>
       </c>
@@ -42836,7 +42972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>539</v>
       </c>
@@ -42866,7 +43002,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>539</v>
       </c>
@@ -42892,7 +43028,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>539</v>
       </c>
@@ -42918,7 +43054,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>539</v>
       </c>
@@ -42944,7 +43080,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>539</v>
       </c>
@@ -42969,8 +43105,9 @@
       <c r="H114" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>540</v>
       </c>
@@ -43003,7 +43140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>540</v>
       </c>
@@ -43033,7 +43170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>540</v>
       </c>
@@ -43063,7 +43200,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>540</v>
       </c>
@@ -43089,7 +43226,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>540</v>
       </c>
@@ -43115,7 +43252,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>540</v>
       </c>
@@ -43140,8 +43277,9 @@
       <c r="H120" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>541</v>
       </c>
@@ -43174,7 +43312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>541</v>
       </c>
@@ -43204,7 +43342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>541</v>
       </c>
@@ -43234,7 +43372,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>541</v>
       </c>
@@ -43260,7 +43398,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>541</v>
       </c>
@@ -43285,8 +43423,9 @@
       <c r="H125" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>542</v>
       </c>
@@ -43319,7 +43458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>542</v>
       </c>
@@ -43349,7 +43488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>542</v>
       </c>
@@ -43379,7 +43518,7 @@
         <v>0.54285714285714282</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>542</v>
       </c>
@@ -43405,7 +43544,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>542</v>
       </c>
@@ -43431,7 +43570,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>542</v>
       </c>
@@ -43457,7 +43596,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="132" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>542</v>
       </c>
@@ -43482,8 +43621,9 @@
       <c r="H132" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>543</v>
       </c>
@@ -43516,7 +43656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>543</v>
       </c>
@@ -43546,7 +43686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>543</v>
       </c>
@@ -43576,7 +43716,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>543</v>
       </c>
@@ -43602,7 +43742,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>543</v>
       </c>
@@ -43627,8 +43767,9 @@
       <c r="H137" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>544</v>
       </c>
@@ -43661,7 +43802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>544</v>
       </c>
@@ -43691,7 +43832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>544</v>
       </c>
@@ -43721,7 +43862,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>544</v>
       </c>
@@ -43747,7 +43888,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>544</v>
       </c>
@@ -43772,8 +43913,9 @@
       <c r="H142" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>545</v>
       </c>
@@ -43806,7 +43948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>545</v>
       </c>
@@ -43836,7 +43978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>545</v>
       </c>
@@ -43866,7 +44008,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>545</v>
       </c>
@@ -43892,7 +44034,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>545</v>
       </c>
@@ -43918,7 +44060,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>545</v>
       </c>
@@ -43943,8 +44085,9 @@
       <c r="H148" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>546</v>
       </c>
@@ -43977,7 +44120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>546</v>
       </c>
@@ -44007,7 +44150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>546</v>
       </c>
@@ -44037,7 +44180,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>546</v>
       </c>
@@ -44063,7 +44206,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>546</v>
       </c>
@@ -44089,7 +44232,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>546</v>
       </c>
@@ -44115,7 +44258,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>546</v>
       </c>
@@ -44141,7 +44284,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>546</v>
       </c>
@@ -44166,8 +44309,9 @@
       <c r="H156" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>547</v>
       </c>
@@ -44200,7 +44344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>547</v>
       </c>
@@ -44230,7 +44374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>547</v>
       </c>
@@ -44260,7 +44404,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>547</v>
       </c>
@@ -44285,8 +44429,9 @@
       <c r="H160" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P160"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>548</v>
       </c>
@@ -44319,7 +44464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>548</v>
       </c>
@@ -44349,7 +44494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>548</v>
       </c>
@@ -44379,7 +44524,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>548</v>
       </c>
@@ -44405,7 +44550,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>548</v>
       </c>
@@ -44431,7 +44576,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="166" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>548</v>
       </c>
@@ -44456,8 +44601,9 @@
       <c r="H166" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P166"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>549</v>
       </c>
@@ -44490,7 +44636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>549</v>
       </c>
@@ -44520,7 +44666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>549</v>
       </c>
@@ -44550,7 +44696,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>549</v>
       </c>
@@ -44576,7 +44722,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>549</v>
       </c>
@@ -44601,8 +44747,9 @@
       <c r="H171" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P171"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>550</v>
       </c>
@@ -44635,7 +44782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>550</v>
       </c>
@@ -44665,7 +44812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>550</v>
       </c>
@@ -44695,7 +44842,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>550</v>
       </c>
@@ -44721,7 +44868,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>550</v>
       </c>
@@ -44747,7 +44894,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>550</v>
       </c>
@@ -44773,7 +44920,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>550</v>
       </c>
@@ -44799,7 +44946,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="179" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>550</v>
       </c>
@@ -44824,8 +44971,9 @@
       <c r="H179" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P179"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>551</v>
       </c>
@@ -44858,7 +45006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>551</v>
       </c>
@@ -44888,7 +45036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>551</v>
       </c>
@@ -44918,7 +45066,7 @@
         <v>0.82857142857142863</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>551</v>
       </c>
@@ -44944,7 +45092,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -44970,7 +45118,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>551</v>
       </c>
@@ -44996,7 +45144,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>551</v>
       </c>
@@ -45021,8 +45169,9 @@
       <c r="H186" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P186"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>552</v>
       </c>
@@ -45055,7 +45204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>552</v>
       </c>
@@ -45085,7 +45234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>552</v>
       </c>
@@ -45115,7 +45264,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>552</v>
       </c>
@@ -45141,7 +45290,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>552</v>
       </c>
@@ -45166,8 +45315,9 @@
       <c r="H191" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P191"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>553</v>
       </c>
@@ -45200,7 +45350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>553</v>
       </c>
@@ -45230,7 +45380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>553</v>
       </c>
@@ -45260,7 +45410,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>553</v>
       </c>
@@ -45286,7 +45436,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>553</v>
       </c>
@@ -45312,7 +45462,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>553</v>
       </c>
@@ -45338,7 +45488,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="198" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>553</v>
       </c>
@@ -45363,8 +45513,9 @@
       <c r="H198" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P198"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>554</v>
       </c>
@@ -45397,7 +45548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>554</v>
       </c>
@@ -45427,7 +45578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>554</v>
       </c>
@@ -45457,7 +45608,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>554</v>
       </c>
@@ -45483,7 +45634,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>554</v>
       </c>
@@ -45509,7 +45660,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="204" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>554</v>
       </c>
@@ -45534,8 +45685,9 @@
       <c r="H204" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P204"/>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>555</v>
       </c>
@@ -45568,7 +45720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>555</v>
       </c>
@@ -45598,7 +45750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>555</v>
       </c>
@@ -45628,7 +45780,7 @@
         <v>0.65714285714285714</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>555</v>
       </c>
@@ -45654,7 +45806,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>555</v>
       </c>
@@ -45680,7 +45832,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>555</v>
       </c>
@@ -45706,7 +45858,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="211" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>555</v>
       </c>
@@ -45731,8 +45883,9 @@
       <c r="H211" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P211"/>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>556</v>
       </c>
@@ -45765,7 +45918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>556</v>
       </c>
@@ -45795,7 +45948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>556</v>
       </c>
@@ -45825,7 +45978,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>556</v>
       </c>
@@ -45850,8 +46003,9 @@
       <c r="H215" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P215"/>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>557</v>
       </c>
@@ -45884,7 +46038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>557</v>
       </c>
@@ -45914,7 +46068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>557</v>
       </c>
@@ -45944,7 +46098,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>557</v>
       </c>
@@ -45970,7 +46124,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>557</v>
       </c>
@@ -45996,7 +46150,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="221" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>557</v>
       </c>
@@ -46021,8 +46175,9 @@
       <c r="H221" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P221"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>558</v>
       </c>
@@ -46055,7 +46210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>558</v>
       </c>
@@ -46085,7 +46240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>558</v>
       </c>
@@ -46115,7 +46270,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>558</v>
       </c>
@@ -46141,7 +46296,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>558</v>
       </c>
@@ -46167,7 +46322,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>558</v>
       </c>
@@ -46192,8 +46347,9 @@
       <c r="H227" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P227"/>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N228">
         <f>AVERAGE(N224,N218,N214,N207,N201,N194,N189,N182,N174,N169,N163,N159,N151,N145,N140,N135,N128,N123,N117,N110,N103,N98,N92,N86,N77,N70,N64,N57,N54,N49,N45,N37,N28,N22,N14,N9,N4)</f>
         <v>0.68666237666237673</v>
